--- a/VB.xlsx
+++ b/VB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UCB\Desktop\Alba\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UCB\Documents\GitHub\SIS112\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B0FB47-CBAE-4BF8-96DE-4FB472C86A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D936CA4-1849-4D23-9C9C-D913B9CBC032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E96CC65-9ED1-4715-8A96-24CB2D03CF4A}"/>
   </bookViews>
